--- a/Data/Processed/Angiosperms/missing_powo_ipni/Connaraceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Connaraceae.xlsx
@@ -982,7 +982,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -2918,7 +2918,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2928,7 +2928,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pflanzenr. (Engler) [Heft 103], 4, Fam. 127: 96, fig. 13 (10). 1938 </t>
+          <t>Pflanzenr. (Engler) [Heft 103], 4, Fam. 127: 96, fig. 13 (10). 1938</t>
         </is>
       </c>
       <c r="J45" t="b">
